--- a/doc/CLOSING PROJECT XPDC.xlsx
+++ b/doc/CLOSING PROJECT XPDC.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sky\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="9270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="72">
   <si>
     <t>Superadmin</t>
   </si>
@@ -210,12 +205,39 @@
   </si>
   <si>
     <t>pilihan untuk hide estimation total charges di pdf</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Sub-Category</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Need to copy data from notes_ to by_</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Edit DB</t>
+  </si>
+  <si>
+    <t>bukannya udah ada ya?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,6 +265,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -368,15 +396,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,7 +492,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,7 +527,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -683,63 +738,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+    <sheetView topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="121.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="121.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="120.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="120.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="100.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="68.44140625" customWidth="1"/>
+    <col min="10" max="10" width="100.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="68.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="9"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -751,7 +806,7 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>57</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -781,13 +836,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="5"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -815,7 +870,7 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -853,7 +908,7 @@
       <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -877,7 +932,7 @@
         <v>48</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -909,7 +964,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="5"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -935,7 +990,7 @@
       <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="3"/>
@@ -957,7 +1012,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="5"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="3"/>
@@ -979,7 +1034,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="5"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="3"/>
@@ -999,7 +1054,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="5"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="3"/>
@@ -1019,7 +1074,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="5"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="3"/>
@@ -1039,7 +1094,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="5"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -1061,7 +1116,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="9" t="s">
         <v>62</v>
       </c>
       <c r="G14" s="3"/>
@@ -1079,7 +1134,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="8"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="6"/>
@@ -1108,13 +1163,530 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="19"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="19"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="19"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="22"/>
+      <c r="E43" s="19"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="22"/>
+      <c r="E44" s="19"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="22"/>
+      <c r="E46" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A24"/>
+    <mergeCell ref="A25:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A46"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1124,7 +1696,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
